--- a/data/pca/factorExposure/factorExposure_2016-05-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.00944904179369869</v>
+        <v>0.01289489728525962</v>
       </c>
       <c r="C2">
-        <v>-0.05640676622528703</v>
+        <v>0.03919412031255459</v>
       </c>
       <c r="D2">
-        <v>0.04409019146675745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05696998435667097</v>
+      </c>
+      <c r="E2">
+        <v>-0.08928966977216399</v>
+      </c>
+      <c r="F2">
+        <v>0.0792585853092382</v>
+      </c>
+      <c r="G2">
+        <v>-0.03850924975484568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04055317134846627</v>
+        <v>0.02532314212277062</v>
       </c>
       <c r="C3">
-        <v>-0.1185616530152364</v>
+        <v>0.0661119126631271</v>
       </c>
       <c r="D3">
-        <v>0.08586427547141179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07086870214259598</v>
+      </c>
+      <c r="E3">
+        <v>-0.07004098114916471</v>
+      </c>
+      <c r="F3">
+        <v>-0.02850578230811883</v>
+      </c>
+      <c r="G3">
+        <v>-0.0520306526452296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06160676340943648</v>
+        <v>0.05949176721159396</v>
       </c>
       <c r="C4">
-        <v>-0.06130295857324509</v>
+        <v>0.06277812581314463</v>
       </c>
       <c r="D4">
-        <v>0.02516638439307219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05028500173987915</v>
+      </c>
+      <c r="E4">
+        <v>-0.08919460048609161</v>
+      </c>
+      <c r="F4">
+        <v>0.03521396136053187</v>
+      </c>
+      <c r="G4">
+        <v>-0.09770419041308212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04054806019340388</v>
+        <v>0.03585048674881475</v>
       </c>
       <c r="C6">
-        <v>-0.03499766282475027</v>
+        <v>0.02606244649835936</v>
       </c>
       <c r="D6">
-        <v>0.02807253996446088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05945216473995318</v>
+      </c>
+      <c r="E6">
+        <v>-0.0884984358365906</v>
+      </c>
+      <c r="F6">
+        <v>0.02191211745548913</v>
+      </c>
+      <c r="G6">
+        <v>-0.07072028754889206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02584159452078274</v>
+        <v>0.0205740236593459</v>
       </c>
       <c r="C7">
-        <v>-0.04222127798571858</v>
+        <v>0.03635989186383933</v>
       </c>
       <c r="D7">
-        <v>-0.004067994244975509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03683169611257392</v>
+      </c>
+      <c r="E7">
+        <v>-0.0650150823838794</v>
+      </c>
+      <c r="F7">
+        <v>0.0648101872990394</v>
+      </c>
+      <c r="G7">
+        <v>-0.1028176932036299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006433004439730565</v>
+        <v>0.004626458275453633</v>
       </c>
       <c r="C8">
-        <v>-0.03744416746480275</v>
+        <v>0.03260085976728381</v>
       </c>
       <c r="D8">
-        <v>0.02954120277069306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0329328033421272</v>
+      </c>
+      <c r="E8">
+        <v>-0.0611717092293791</v>
+      </c>
+      <c r="F8">
+        <v>0.01528118595110478</v>
+      </c>
+      <c r="G8">
+        <v>-0.04097679329467228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03444707795173566</v>
+        <v>0.03782343212632311</v>
       </c>
       <c r="C9">
-        <v>-0.05044070292663596</v>
+        <v>0.05125290159374093</v>
       </c>
       <c r="D9">
-        <v>0.01028531367148724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03523785405446068</v>
+      </c>
+      <c r="E9">
+        <v>-0.07506542861635626</v>
+      </c>
+      <c r="F9">
+        <v>0.04843265753602275</v>
+      </c>
+      <c r="G9">
+        <v>-0.09001415630277507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07189645472280111</v>
+        <v>0.09845859573069606</v>
       </c>
       <c r="C10">
-        <v>0.1861880358221833</v>
+        <v>-0.1971574070195901</v>
       </c>
       <c r="D10">
-        <v>-0.007920823765652667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01424976017234468</v>
+      </c>
+      <c r="E10">
+        <v>-0.03725997046633325</v>
+      </c>
+      <c r="F10">
+        <v>0.01646671975872499</v>
+      </c>
+      <c r="G10">
+        <v>-0.03383727196728389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0422747094318119</v>
+        <v>0.03758959502728363</v>
       </c>
       <c r="C11">
-        <v>-0.05121193559129514</v>
+        <v>0.04750354983360135</v>
       </c>
       <c r="D11">
-        <v>0.01327038202428458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03099778515170254</v>
+      </c>
+      <c r="E11">
+        <v>-0.0279070226649415</v>
+      </c>
+      <c r="F11">
+        <v>0.03660537211783613</v>
+      </c>
+      <c r="G11">
+        <v>-0.07280841540723285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04469539819694494</v>
+        <v>0.03967593965089554</v>
       </c>
       <c r="C12">
-        <v>-0.0468150352816074</v>
+        <v>0.04528952210089063</v>
       </c>
       <c r="D12">
-        <v>0.002662601399821615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02582376419642711</v>
+      </c>
+      <c r="E12">
+        <v>-0.03524316145442018</v>
+      </c>
+      <c r="F12">
+        <v>0.03901230641528196</v>
+      </c>
+      <c r="G12">
+        <v>-0.07037439588578261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01336960001884184</v>
+        <v>0.01130794509924321</v>
       </c>
       <c r="C13">
-        <v>-0.05530925173107784</v>
+        <v>0.04202426881304538</v>
       </c>
       <c r="D13">
-        <v>0.007648587156406267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04075851904475469</v>
+      </c>
+      <c r="E13">
+        <v>-0.1015111691569165</v>
+      </c>
+      <c r="F13">
+        <v>0.05374840514689357</v>
+      </c>
+      <c r="G13">
+        <v>-0.1018235839179007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009454684130141994</v>
+        <v>0.005669437293604862</v>
       </c>
       <c r="C14">
-        <v>-0.04108219364962664</v>
+        <v>0.03234600666797249</v>
       </c>
       <c r="D14">
-        <v>-0.008581124838813488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02338863657617469</v>
+      </c>
+      <c r="E14">
+        <v>-0.05000465267764424</v>
+      </c>
+      <c r="F14">
+        <v>0.07219706978437049</v>
+      </c>
+      <c r="G14">
+        <v>-0.0886715517700926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001044225575131194</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005464787166793871</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00714134914411789</v>
+      </c>
+      <c r="E15">
+        <v>-0.004791276279495976</v>
+      </c>
+      <c r="F15">
+        <v>0.005997843756515841</v>
+      </c>
+      <c r="G15">
+        <v>-0.007973990282669072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03945496181313034</v>
+        <v>0.03532105554187278</v>
       </c>
       <c r="C16">
-        <v>-0.04883852007030823</v>
+        <v>0.04441808781143194</v>
       </c>
       <c r="D16">
-        <v>0.005587638995170348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02472733128453534</v>
+      </c>
+      <c r="E16">
+        <v>-0.04186869026255966</v>
+      </c>
+      <c r="F16">
+        <v>0.04762178192038385</v>
+      </c>
+      <c r="G16">
+        <v>-0.06163633974748022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02523447640850604</v>
+        <v>0.01854561332975805</v>
       </c>
       <c r="C19">
-        <v>-0.05990940606229591</v>
+        <v>0.04324877953181631</v>
       </c>
       <c r="D19">
-        <v>0.09074629152379407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.091063307067227</v>
+      </c>
+      <c r="E19">
+        <v>-0.1125898524593001</v>
+      </c>
+      <c r="F19">
+        <v>0.05840252669600341</v>
+      </c>
+      <c r="G19">
+        <v>-0.05360167444382888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01792594656265326</v>
+        <v>0.01444678113691466</v>
       </c>
       <c r="C20">
-        <v>-0.04825835270794377</v>
+        <v>0.03871039407965751</v>
       </c>
       <c r="D20">
-        <v>0.01032002631077947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03159250799896172</v>
+      </c>
+      <c r="E20">
+        <v>-0.07828875429890814</v>
+      </c>
+      <c r="F20">
+        <v>0.04637060788676078</v>
+      </c>
+      <c r="G20">
+        <v>-0.07294922678456994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01189863904231524</v>
+        <v>0.01051840625722465</v>
       </c>
       <c r="C21">
-        <v>-0.05177411309852867</v>
+        <v>0.04085919222260611</v>
       </c>
       <c r="D21">
-        <v>0.03491122871132241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05506569032497283</v>
+      </c>
+      <c r="E21">
+        <v>-0.1212536935606759</v>
+      </c>
+      <c r="F21">
+        <v>0.07895809766587511</v>
+      </c>
+      <c r="G21">
+        <v>-0.1140147247379596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001858489144962635</v>
+        <v>0.003056232146327232</v>
       </c>
       <c r="C22">
-        <v>-0.00150756968289209</v>
+        <v>0.02693726934461177</v>
       </c>
       <c r="D22">
-        <v>0.004740051884488226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0425750637658852</v>
+      </c>
+      <c r="E22">
+        <v>-0.0445087422848696</v>
+      </c>
+      <c r="F22">
+        <v>-0.0162189895973696</v>
+      </c>
+      <c r="G22">
+        <v>-0.05468145192559151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001864036964408369</v>
+        <v>0.003143379511936396</v>
       </c>
       <c r="C23">
-        <v>-0.001525589912032583</v>
+        <v>0.02707650771469732</v>
       </c>
       <c r="D23">
-        <v>0.004730998157962134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04212282674546574</v>
+      </c>
+      <c r="E23">
+        <v>-0.04476301732753098</v>
+      </c>
+      <c r="F23">
+        <v>-0.01649563136922389</v>
+      </c>
+      <c r="G23">
+        <v>-0.05464766582642899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03625368223003964</v>
+        <v>0.03557525841919726</v>
       </c>
       <c r="C24">
-        <v>-0.04988979287860609</v>
+        <v>0.05181210942820146</v>
       </c>
       <c r="D24">
-        <v>0.007910928602472682</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02431913747945231</v>
+      </c>
+      <c r="E24">
+        <v>-0.04343933172254413</v>
+      </c>
+      <c r="F24">
+        <v>0.04840953143196038</v>
+      </c>
+      <c r="G24">
+        <v>-0.07461689937916277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04925878042165968</v>
+        <v>0.04437777905565547</v>
       </c>
       <c r="C25">
-        <v>-0.06049528071434155</v>
+        <v>0.05573128455757288</v>
       </c>
       <c r="D25">
-        <v>-0.004413387090634806</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02175362639771896</v>
+      </c>
+      <c r="E25">
+        <v>-0.03379039310627534</v>
+      </c>
+      <c r="F25">
+        <v>0.03825087036216353</v>
+      </c>
+      <c r="G25">
+        <v>-0.08440027744709681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01724702880699195</v>
+        <v>0.0154269868895266</v>
       </c>
       <c r="C26">
-        <v>-0.01717729536719239</v>
+        <v>0.01665947685768153</v>
       </c>
       <c r="D26">
-        <v>0.0001997256719261012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02350294556718954</v>
+      </c>
+      <c r="E26">
+        <v>-0.05277861912479711</v>
+      </c>
+      <c r="F26">
+        <v>0.0553394425690977</v>
+      </c>
+      <c r="G26">
+        <v>-0.05624449317473589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0873772410094345</v>
+        <v>0.1347248861466388</v>
       </c>
       <c r="C28">
-        <v>0.2484753845397091</v>
+        <v>-0.2553917213514575</v>
       </c>
       <c r="D28">
-        <v>-0.009548880021917696</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03016625656171168</v>
+      </c>
+      <c r="E28">
+        <v>-0.0546671171384726</v>
+      </c>
+      <c r="F28">
+        <v>0.0248360307317058</v>
+      </c>
+      <c r="G28">
+        <v>-0.05500550330208222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008061083898592376</v>
+        <v>0.006075584035996848</v>
       </c>
       <c r="C29">
-        <v>-0.03340340691398821</v>
+        <v>0.02897466639359292</v>
       </c>
       <c r="D29">
-        <v>-0.016169074471665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01535862426410982</v>
+      </c>
+      <c r="E29">
+        <v>-0.04877611699949118</v>
+      </c>
+      <c r="F29">
+        <v>0.06107368317988065</v>
+      </c>
+      <c r="G29">
+        <v>-0.09208643826734055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04522757289301316</v>
+        <v>0.04168053574995714</v>
       </c>
       <c r="C30">
-        <v>-0.055332228735086</v>
+        <v>0.05696484654168461</v>
       </c>
       <c r="D30">
-        <v>0.0728918597079071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09920019560412376</v>
+      </c>
+      <c r="E30">
+        <v>-0.08136675611729424</v>
+      </c>
+      <c r="F30">
+        <v>0.06544509637694641</v>
+      </c>
+      <c r="G30">
+        <v>-0.07371641776664467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05952850124339996</v>
+        <v>0.05811323634139978</v>
       </c>
       <c r="C31">
-        <v>-0.0444559032223457</v>
+        <v>0.06058775603872194</v>
       </c>
       <c r="D31">
-        <v>-0.04117907745760278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01851044164824958</v>
+      </c>
+      <c r="E31">
+        <v>-0.06753845590186486</v>
+      </c>
+      <c r="F31">
+        <v>0.0211578655956173</v>
+      </c>
+      <c r="G31">
+        <v>-0.0894187762046202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0001203929292944723</v>
+        <v>0.005379864326435566</v>
       </c>
       <c r="C32">
-        <v>-0.04458638284033856</v>
+        <v>0.03404535761431764</v>
       </c>
       <c r="D32">
-        <v>0.0492905151692602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05364416364378894</v>
+      </c>
+      <c r="E32">
+        <v>-0.05556082876260182</v>
+      </c>
+      <c r="F32">
+        <v>0.0639977206971878</v>
+      </c>
+      <c r="G32">
+        <v>-0.0752314847474552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.032278695947632</v>
+        <v>0.02712677438383185</v>
       </c>
       <c r="C33">
-        <v>-0.05920469841128025</v>
+        <v>0.05246949502270171</v>
       </c>
       <c r="D33">
-        <v>0.03809526002539675</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06878907107404235</v>
+      </c>
+      <c r="E33">
+        <v>-0.09166000239244793</v>
+      </c>
+      <c r="F33">
+        <v>0.06137865446619601</v>
+      </c>
+      <c r="G33">
+        <v>-0.1055468194867127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04670902522642453</v>
+        <v>0.04197872756166898</v>
       </c>
       <c r="C34">
-        <v>-0.06443373349231866</v>
+        <v>0.06281178082943663</v>
       </c>
       <c r="D34">
-        <v>0.01546453850204054</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03693864268702213</v>
+      </c>
+      <c r="E34">
+        <v>-0.01632595683485656</v>
+      </c>
+      <c r="F34">
+        <v>0.05123201529602098</v>
+      </c>
+      <c r="G34">
+        <v>-0.07739246581012048</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01688221387350594</v>
+        <v>0.01456713910739085</v>
       </c>
       <c r="C36">
-        <v>-0.01690263281379274</v>
+        <v>0.01303079096513299</v>
       </c>
       <c r="D36">
-        <v>-0.004175189622642658</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02199117471788383</v>
+      </c>
+      <c r="E36">
+        <v>-0.06009173930226806</v>
+      </c>
+      <c r="F36">
+        <v>0.04432462386302335</v>
+      </c>
+      <c r="G36">
+        <v>-0.07310837565594669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02874915671447244</v>
+        <v>0.02271647818730892</v>
       </c>
       <c r="C38">
-        <v>-0.03360803001968674</v>
+        <v>0.02477988788030641</v>
       </c>
       <c r="D38">
-        <v>-0.01452587575750509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02052619747676314</v>
+      </c>
+      <c r="E38">
+        <v>-0.05378430316450464</v>
+      </c>
+      <c r="F38">
+        <v>0.03792856356091625</v>
+      </c>
+      <c r="G38">
+        <v>-0.0486395397101283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04747993914045353</v>
+        <v>0.0413818557907267</v>
       </c>
       <c r="C39">
-        <v>-0.06300613565642194</v>
+        <v>0.06260177298046582</v>
       </c>
       <c r="D39">
-        <v>0.01701383655180541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04985496173431057</v>
+      </c>
+      <c r="E39">
+        <v>-0.0501862482510762</v>
+      </c>
+      <c r="F39">
+        <v>0.07029174996988383</v>
+      </c>
+      <c r="G39">
+        <v>-0.07149445987765697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01191612526633045</v>
+        <v>0.01371026700776843</v>
       </c>
       <c r="C40">
-        <v>-0.05133675187849407</v>
+        <v>0.03724747030445558</v>
       </c>
       <c r="D40">
-        <v>0.01919030335043988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02756186002707735</v>
+      </c>
+      <c r="E40">
+        <v>-0.08552587465412158</v>
+      </c>
+      <c r="F40">
+        <v>0.0263057943072825</v>
+      </c>
+      <c r="G40">
+        <v>-0.1104348050526578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02207968642108449</v>
+        <v>0.01896567771088353</v>
       </c>
       <c r="C41">
-        <v>-0.01482026776921012</v>
+        <v>0.01042151668689656</v>
       </c>
       <c r="D41">
-        <v>0.0006080552511818918</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01413991110605481</v>
+      </c>
+      <c r="E41">
+        <v>-0.06162957463948766</v>
+      </c>
+      <c r="F41">
+        <v>0.04219066927889685</v>
+      </c>
+      <c r="G41">
+        <v>-0.05898029498702559</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04146761097766572</v>
+        <v>0.02993801439222027</v>
       </c>
       <c r="C43">
-        <v>-0.03251449817710653</v>
+        <v>0.02385101137372992</v>
       </c>
       <c r="D43">
-        <v>0.02614789853316399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04273507280566619</v>
+      </c>
+      <c r="E43">
+        <v>-0.07848830988081708</v>
+      </c>
+      <c r="F43">
+        <v>0.03422480091257479</v>
+      </c>
+      <c r="G43">
+        <v>-0.08752918918818425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01393531975192228</v>
+        <v>0.01536966995825279</v>
       </c>
       <c r="C44">
-        <v>-0.06843379134231597</v>
+        <v>0.0477460308957085</v>
       </c>
       <c r="D44">
-        <v>0.009047407465184005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03124632075737816</v>
+      </c>
+      <c r="E44">
+        <v>-0.08587180668082652</v>
+      </c>
+      <c r="F44">
+        <v>0.05785979324406102</v>
+      </c>
+      <c r="G44">
+        <v>-0.05657300523530274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01002182675281073</v>
+        <v>0.01037149680205155</v>
       </c>
       <c r="C46">
-        <v>-0.02883326557248648</v>
+        <v>0.0290379246035978</v>
       </c>
       <c r="D46">
-        <v>-0.01569168643660877</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01078268199523524</v>
+      </c>
+      <c r="E46">
+        <v>-0.05867495022647582</v>
+      </c>
+      <c r="F46">
+        <v>0.07411575232715563</v>
+      </c>
+      <c r="G46">
+        <v>-0.0933905331569517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08838724522950775</v>
+        <v>0.09123374635880901</v>
       </c>
       <c r="C47">
-        <v>-0.06928064974964857</v>
+        <v>0.0794843808374478</v>
       </c>
       <c r="D47">
-        <v>-0.04257309950316312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02596185604119167</v>
+      </c>
+      <c r="E47">
+        <v>-0.06672209866534128</v>
+      </c>
+      <c r="F47">
+        <v>0.02067022564039571</v>
+      </c>
+      <c r="G47">
+        <v>-0.07985093979886183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01936163420949047</v>
+        <v>0.01742193230375559</v>
       </c>
       <c r="C48">
-        <v>-0.01416869286261158</v>
+        <v>0.01551069595626218</v>
       </c>
       <c r="D48">
-        <v>-0.01975854954411908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009299080157297449</v>
+      </c>
+      <c r="E48">
+        <v>-0.07156781215449687</v>
+      </c>
+      <c r="F48">
+        <v>0.05707639073039182</v>
+      </c>
+      <c r="G48">
+        <v>-0.0829648305534714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08245227507333243</v>
+        <v>0.07118444685964011</v>
       </c>
       <c r="C50">
-        <v>-0.08257692828923135</v>
+        <v>0.0750860057806591</v>
       </c>
       <c r="D50">
-        <v>-0.04117064163782749</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01061950910569274</v>
+      </c>
+      <c r="E50">
+        <v>-0.07639645367166671</v>
+      </c>
+      <c r="F50">
+        <v>-0.008709088990290523</v>
+      </c>
+      <c r="G50">
+        <v>-0.09571713941830548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.017405641495432</v>
+        <v>0.01082770193968895</v>
       </c>
       <c r="C51">
-        <v>-0.04919814508153883</v>
+        <v>0.03163195929268316</v>
       </c>
       <c r="D51">
-        <v>0.03966676083007334</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05495262217535853</v>
+      </c>
+      <c r="E51">
+        <v>-0.0509732982252452</v>
+      </c>
+      <c r="F51">
+        <v>0.06308384316052787</v>
+      </c>
+      <c r="G51">
+        <v>-0.06883223271931876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08364605469011133</v>
+        <v>0.09651298880333239</v>
       </c>
       <c r="C53">
-        <v>-0.07596351749472867</v>
+        <v>0.08477026074456791</v>
       </c>
       <c r="D53">
-        <v>-0.06128905460683028</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06228400404394181</v>
+      </c>
+      <c r="E53">
+        <v>-0.06342024376413105</v>
+      </c>
+      <c r="F53">
+        <v>0.01743714719264643</v>
+      </c>
+      <c r="G53">
+        <v>-0.07247381552889541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03480198999434298</v>
+        <v>0.02840136175164339</v>
       </c>
       <c r="C54">
-        <v>-0.03956719775582334</v>
+        <v>0.03314852383038412</v>
       </c>
       <c r="D54">
-        <v>-0.003764091371934005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02307023539491597</v>
+      </c>
+      <c r="E54">
+        <v>-0.0590461366812321</v>
+      </c>
+      <c r="F54">
+        <v>0.06488650677355388</v>
+      </c>
+      <c r="G54">
+        <v>-0.0883520581148769</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07800706117606905</v>
+        <v>0.08838230620338315</v>
       </c>
       <c r="C55">
-        <v>-0.05523028037969864</v>
+        <v>0.06778923236516551</v>
       </c>
       <c r="D55">
-        <v>-0.06521778529648577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06196700558046068</v>
+      </c>
+      <c r="E55">
+        <v>-0.0431975199970169</v>
+      </c>
+      <c r="F55">
+        <v>0.0029746258542518</v>
+      </c>
+      <c r="G55">
+        <v>-0.0513114554229627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.151403698392267</v>
+        <v>0.1532963732196639</v>
       </c>
       <c r="C56">
-        <v>-0.0849654226762698</v>
+        <v>0.1016458624208138</v>
       </c>
       <c r="D56">
-        <v>-0.05682778916673466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05661770003723587</v>
+      </c>
+      <c r="E56">
+        <v>-0.04043809331078593</v>
+      </c>
+      <c r="F56">
+        <v>-0.01651547076522582</v>
+      </c>
+      <c r="G56">
+        <v>-0.02180522406678054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04131649283392395</v>
+        <v>0.02601444071579941</v>
       </c>
       <c r="C58">
-        <v>-0.02711634945560453</v>
+        <v>0.0230455491134509</v>
       </c>
       <c r="D58">
-        <v>0.6106200111855223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3650988323059523</v>
+      </c>
+      <c r="E58">
+        <v>-0.6504240191689331</v>
+      </c>
+      <c r="F58">
+        <v>-0.391034389426933</v>
+      </c>
+      <c r="G58">
+        <v>0.4668300074445844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1266064815032886</v>
+        <v>0.1418224607285101</v>
       </c>
       <c r="C59">
-        <v>0.2012984143403696</v>
+        <v>-0.1908712489983677</v>
       </c>
       <c r="D59">
-        <v>0.02471823358950917</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02754515909505904</v>
+      </c>
+      <c r="E59">
+        <v>-0.03066103602827165</v>
+      </c>
+      <c r="F59">
+        <v>0.03628965036531814</v>
+      </c>
+      <c r="G59">
+        <v>0.006796921919437573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3078481348229434</v>
+        <v>0.2775364013607303</v>
       </c>
       <c r="C60">
-        <v>-0.1049579327280341</v>
+        <v>0.1054144762285722</v>
       </c>
       <c r="D60">
-        <v>0.1816265648213627</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2645841433902201</v>
+      </c>
+      <c r="E60">
+        <v>0.2393502999409342</v>
+      </c>
+      <c r="F60">
+        <v>-0.08314181463125908</v>
+      </c>
+      <c r="G60">
+        <v>-0.02889061943276687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04594667148479753</v>
+        <v>0.04290121987599799</v>
       </c>
       <c r="C61">
-        <v>-0.06230677466457746</v>
+        <v>0.05843496991447771</v>
       </c>
       <c r="D61">
-        <v>0.01123458325255785</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04003069517759793</v>
+      </c>
+      <c r="E61">
+        <v>-0.05148485091162965</v>
+      </c>
+      <c r="F61">
+        <v>0.05132572993481528</v>
+      </c>
+      <c r="G61">
+        <v>-0.08549331171962256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01750373279793871</v>
+        <v>0.01597911947199577</v>
       </c>
       <c r="C63">
-        <v>-0.03423866125496464</v>
+        <v>0.0308561231622911</v>
       </c>
       <c r="D63">
-        <v>-0.02085778288105564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01482585946415891</v>
+      </c>
+      <c r="E63">
+        <v>-0.06385626271720873</v>
+      </c>
+      <c r="F63">
+        <v>0.02984087700260149</v>
+      </c>
+      <c r="G63">
+        <v>-0.07936288737021706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05044255293237421</v>
+        <v>0.05586525173217961</v>
       </c>
       <c r="C64">
-        <v>-0.05049882112716512</v>
+        <v>0.05839300017747966</v>
       </c>
       <c r="D64">
-        <v>0.007077625604584657</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.007282224238585875</v>
+      </c>
+      <c r="E64">
+        <v>-0.04166821833978532</v>
+      </c>
+      <c r="F64">
+        <v>0.04809755226312279</v>
+      </c>
+      <c r="G64">
+        <v>-0.06063702286261927</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08123130678034426</v>
+        <v>0.06575730741596944</v>
       </c>
       <c r="C65">
-        <v>-0.0280557509766468</v>
+        <v>0.02688438576497243</v>
       </c>
       <c r="D65">
-        <v>0.05768559978621145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08549064602181215</v>
+      </c>
+      <c r="E65">
+        <v>-0.05582598541483685</v>
+      </c>
+      <c r="F65">
+        <v>0.002769392383747618</v>
+      </c>
+      <c r="G65">
+        <v>-0.02410748745426247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06291141417775473</v>
+        <v>0.05355629816535391</v>
       </c>
       <c r="C66">
-        <v>-0.08639204465292734</v>
+        <v>0.08012179990304988</v>
       </c>
       <c r="D66">
-        <v>0.03815439925338001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0743707762890972</v>
+      </c>
+      <c r="E66">
+        <v>-0.05949369314296731</v>
+      </c>
+      <c r="F66">
+        <v>0.05968959579973739</v>
+      </c>
+      <c r="G66">
+        <v>-0.08568059034182596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05085610037408459</v>
+        <v>0.04444036238931982</v>
       </c>
       <c r="C67">
-        <v>-0.03307446061418215</v>
+        <v>0.02934440440493732</v>
       </c>
       <c r="D67">
-        <v>-0.02267732241163332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004566832901837497</v>
+      </c>
+      <c r="E67">
+        <v>-0.02978434268158867</v>
+      </c>
+      <c r="F67">
+        <v>0.02717352773587891</v>
+      </c>
+      <c r="G67">
+        <v>-0.03825010226243391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1234664672590545</v>
+        <v>0.1480807421370491</v>
       </c>
       <c r="C68">
-        <v>0.282848413225387</v>
+        <v>-0.2464512601472727</v>
       </c>
       <c r="D68">
-        <v>-0.007629301328390224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01648947388558308</v>
+      </c>
+      <c r="E68">
+        <v>-0.03765118402562344</v>
+      </c>
+      <c r="F68">
+        <v>0.004950820744457466</v>
+      </c>
+      <c r="G68">
+        <v>-0.03545228439861808</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09212828620837787</v>
+        <v>0.0874565590448195</v>
       </c>
       <c r="C69">
-        <v>-0.07231997107082427</v>
+        <v>0.09006646454826006</v>
       </c>
       <c r="D69">
-        <v>-0.05026614190689149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01793062517240576</v>
+      </c>
+      <c r="E69">
+        <v>-0.05764676137500302</v>
+      </c>
+      <c r="F69">
+        <v>0.05085826199537912</v>
+      </c>
+      <c r="G69">
+        <v>-0.08388412631606851</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1137254813294718</v>
+        <v>0.141885691855915</v>
       </c>
       <c r="C71">
-        <v>0.2583272701084661</v>
+        <v>-0.2440260918356423</v>
       </c>
       <c r="D71">
-        <v>0.0130197728831163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002375683365096937</v>
+      </c>
+      <c r="E71">
+        <v>-0.05690076452038573</v>
+      </c>
+      <c r="F71">
+        <v>0.008806984567496359</v>
+      </c>
+      <c r="G71">
+        <v>-0.06304760169272085</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09558848730964668</v>
+        <v>0.102111310301468</v>
       </c>
       <c r="C72">
-        <v>-0.0503967806465408</v>
+        <v>0.05547618605905486</v>
       </c>
       <c r="D72">
-        <v>0.004699096668288232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02925910105372155</v>
+      </c>
+      <c r="E72">
+        <v>-0.02627227947124909</v>
+      </c>
+      <c r="F72">
+        <v>0.02503914835388571</v>
+      </c>
+      <c r="G72">
+        <v>-0.08065696836552817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3993744269615679</v>
+        <v>0.337685544941856</v>
       </c>
       <c r="C73">
-        <v>-0.03954673017837111</v>
+        <v>0.06776187783336338</v>
       </c>
       <c r="D73">
-        <v>0.4367829022078864</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5249795131999878</v>
+      </c>
+      <c r="E73">
+        <v>0.4393283203938102</v>
+      </c>
+      <c r="F73">
+        <v>-0.2359420119081284</v>
+      </c>
+      <c r="G73">
+        <v>0.01255516716872265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1056326243394587</v>
+        <v>0.1106379662129165</v>
       </c>
       <c r="C74">
-        <v>-0.09295222196667483</v>
+        <v>0.09295318243220821</v>
       </c>
       <c r="D74">
-        <v>-0.04332879762034908</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04956127889341498</v>
+      </c>
+      <c r="E74">
+        <v>-0.06134319890295015</v>
+      </c>
+      <c r="F74">
+        <v>-0.02154375191882776</v>
+      </c>
+      <c r="G74">
+        <v>-0.05255452971309276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2599103257013137</v>
+        <v>0.2620145507603401</v>
       </c>
       <c r="C75">
-        <v>-0.09459272770212608</v>
+        <v>0.1259094435729181</v>
       </c>
       <c r="D75">
-        <v>-0.1327254792851329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1497401460915068</v>
+      </c>
+      <c r="E75">
+        <v>-0.02718845553610801</v>
+      </c>
+      <c r="F75">
+        <v>-0.06401713248280314</v>
+      </c>
+      <c r="G75">
+        <v>0.0559107341201348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.115833881141114</v>
+        <v>0.1297897535613335</v>
       </c>
       <c r="C76">
-        <v>-0.08016113055599541</v>
+        <v>0.09150116650568423</v>
       </c>
       <c r="D76">
-        <v>-0.07329595834301043</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08239944029507075</v>
+      </c>
+      <c r="E76">
+        <v>-0.06882989893206259</v>
+      </c>
+      <c r="F76">
+        <v>0.004122903083974732</v>
+      </c>
+      <c r="G76">
+        <v>-0.03591432355703707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07786910185775719</v>
+        <v>0.06418706220444353</v>
       </c>
       <c r="C77">
-        <v>-0.05031404403769509</v>
+        <v>0.06158471071041297</v>
       </c>
       <c r="D77">
-        <v>0.05058416587024644</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04874692083133065</v>
+      </c>
+      <c r="E77">
+        <v>-0.1007854831384172</v>
+      </c>
+      <c r="F77">
+        <v>0.1787352335601128</v>
+      </c>
+      <c r="G77">
+        <v>0.07616106560930241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0485159424286055</v>
+        <v>0.04601076201039716</v>
       </c>
       <c r="C78">
-        <v>-0.04639078804351449</v>
+        <v>0.05580493265900933</v>
       </c>
       <c r="D78">
-        <v>0.02680894187737685</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05833671877808943</v>
+      </c>
+      <c r="E78">
+        <v>-0.06047832637501582</v>
+      </c>
+      <c r="F78">
+        <v>0.05265181755663075</v>
+      </c>
+      <c r="G78">
+        <v>-0.06717572888641124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.03113644529303245</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04494562181085564</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07925634748840071</v>
+      </c>
+      <c r="E79">
+        <v>-0.06173265857764497</v>
+      </c>
+      <c r="F79">
+        <v>-0.02385306169517501</v>
+      </c>
+      <c r="G79">
+        <v>-0.03243257946667187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03928824329666349</v>
+        <v>0.03032591588620877</v>
       </c>
       <c r="C80">
-        <v>-0.0488289804435091</v>
+        <v>0.04988763804232703</v>
       </c>
       <c r="D80">
-        <v>0.03156865605444716</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03972613741494815</v>
+      </c>
+      <c r="E80">
+        <v>-0.01965732616729785</v>
+      </c>
+      <c r="F80">
+        <v>0.05392790656847777</v>
+      </c>
+      <c r="G80">
+        <v>-0.004522776048360032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1420461756503146</v>
+        <v>0.1419046674559905</v>
       </c>
       <c r="C81">
-        <v>-0.07252194723977554</v>
+        <v>0.09160370898924548</v>
       </c>
       <c r="D81">
-        <v>-0.1050084983351061</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1260971146350822</v>
+      </c>
+      <c r="E81">
+        <v>-0.0654995206630984</v>
+      </c>
+      <c r="F81">
+        <v>-0.03277400210303227</v>
+      </c>
+      <c r="G81">
+        <v>0.01100975325798761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1841093938082001</v>
+        <v>0.2198710227656433</v>
       </c>
       <c r="C82">
-        <v>-0.08556392877572666</v>
+        <v>0.1499764755910942</v>
       </c>
       <c r="D82">
-        <v>-0.1851724904226799</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2471351788290343</v>
+      </c>
+      <c r="E82">
+        <v>0.02914752704541354</v>
+      </c>
+      <c r="F82">
+        <v>0.0460686617124214</v>
+      </c>
+      <c r="G82">
+        <v>-0.05601842454723435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03937110692661713</v>
+        <v>0.02666412873934792</v>
       </c>
       <c r="C83">
-        <v>-0.03078500011944483</v>
+        <v>0.04379413796987667</v>
       </c>
       <c r="D83">
-        <v>0.0389068592707493</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02979411805876187</v>
+      </c>
+      <c r="E83">
+        <v>-0.0270476372649035</v>
+      </c>
+      <c r="F83">
+        <v>0.03931610192184016</v>
+      </c>
+      <c r="G83">
+        <v>-0.0126491054893102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004807734428363731</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001847519965649067</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001999677856921357</v>
+      </c>
+      <c r="E84">
+        <v>-0.002317682140106084</v>
+      </c>
+      <c r="F84">
+        <v>-0.0004841615555663949</v>
+      </c>
+      <c r="G84">
+        <v>-0.002726177199864439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.22277402338948</v>
+        <v>0.2052523028860633</v>
       </c>
       <c r="C85">
-        <v>-0.09605186891539111</v>
+        <v>0.1125257198812099</v>
       </c>
       <c r="D85">
-        <v>-0.171408930392159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1304825767677708</v>
+      </c>
+      <c r="E85">
+        <v>0.0148704171979358</v>
+      </c>
+      <c r="F85">
+        <v>-0.09838709184532195</v>
+      </c>
+      <c r="G85">
+        <v>0.01661573390394773</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007630313115699802</v>
+        <v>0.01101310725371566</v>
       </c>
       <c r="C86">
-        <v>-0.02821372016399474</v>
+        <v>0.01997435264546911</v>
       </c>
       <c r="D86">
-        <v>0.04831146389907851</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05886035392528243</v>
+      </c>
+      <c r="E86">
+        <v>-0.08099816431943883</v>
+      </c>
+      <c r="F86">
+        <v>0.08034539798878741</v>
+      </c>
+      <c r="G86">
+        <v>-0.08144379284156977</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02455814359555346</v>
+        <v>0.0255147974123757</v>
       </c>
       <c r="C87">
-        <v>-0.004461178003998541</v>
+        <v>0.01236219306367176</v>
       </c>
       <c r="D87">
-        <v>0.08166285788895204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07825201836301722</v>
+      </c>
+      <c r="E87">
+        <v>-0.1286174427752677</v>
+      </c>
+      <c r="F87">
+        <v>0.07326750257669114</v>
+      </c>
+      <c r="G87">
+        <v>-0.0255143535317983</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1085582100941095</v>
+        <v>0.09305874641244251</v>
       </c>
       <c r="C88">
-        <v>-0.07551068473848237</v>
+        <v>0.06318735752815209</v>
       </c>
       <c r="D88">
-        <v>-0.021089865038633</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008412422108520331</v>
+      </c>
+      <c r="E88">
+        <v>-0.05457936785780253</v>
+      </c>
+      <c r="F88">
+        <v>0.05603470202071215</v>
+      </c>
+      <c r="G88">
+        <v>-0.04336203771206378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1770760079433993</v>
+        <v>0.2148878184430085</v>
       </c>
       <c r="C89">
-        <v>0.3802274599712094</v>
+        <v>-0.3835214958297147</v>
       </c>
       <c r="D89">
-        <v>-0.02101955049118933</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01903955577458995</v>
+      </c>
+      <c r="E89">
+        <v>-0.07358543387779373</v>
+      </c>
+      <c r="F89">
+        <v>0.0945594980794283</v>
+      </c>
+      <c r="G89">
+        <v>-0.005207724653904445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1715873387270955</v>
+        <v>0.1962672630787444</v>
       </c>
       <c r="C90">
-        <v>0.3384745945895183</v>
+        <v>-0.3138279641225789</v>
       </c>
       <c r="D90">
-        <v>-0.03681073896491326</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02458002564782896</v>
+      </c>
+      <c r="E90">
+        <v>-0.0552233662232208</v>
+      </c>
+      <c r="F90">
+        <v>0.02852803854984367</v>
+      </c>
+      <c r="G90">
+        <v>-0.0193750653721078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1921800622725789</v>
+        <v>0.1885518741637402</v>
       </c>
       <c r="C91">
-        <v>-0.1258836525958389</v>
+        <v>0.141892422860816</v>
       </c>
       <c r="D91">
-        <v>-0.1279731369659924</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1305296248307465</v>
+      </c>
+      <c r="E91">
+        <v>-0.04388962688133778</v>
+      </c>
+      <c r="F91">
+        <v>-0.01713365448075371</v>
+      </c>
+      <c r="G91">
+        <v>0.007268617869089526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1570288575529168</v>
+        <v>0.1778078944494659</v>
       </c>
       <c r="C92">
-        <v>0.2873365022692465</v>
+        <v>-0.2925822950658715</v>
       </c>
       <c r="D92">
-        <v>-0.02138561808073524</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02020940193353235</v>
+      </c>
+      <c r="E92">
+        <v>-0.06872308895044348</v>
+      </c>
+      <c r="F92">
+        <v>0.0583486922865715</v>
+      </c>
+      <c r="G92">
+        <v>-0.03171529079449224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1909866707878905</v>
+        <v>0.2167075846826755</v>
       </c>
       <c r="C93">
-        <v>0.339896312435963</v>
+        <v>-0.3211782076329226</v>
       </c>
       <c r="D93">
-        <v>-0.03759989937658297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02064654599155269</v>
+      </c>
+      <c r="E93">
+        <v>-0.04223352353965817</v>
+      </c>
+      <c r="F93">
+        <v>0.002404728628349698</v>
+      </c>
+      <c r="G93">
+        <v>-0.04066790384974316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3434723536098483</v>
+        <v>0.3437390528842538</v>
       </c>
       <c r="C94">
-        <v>-0.1327779180301389</v>
+        <v>0.178407948272109</v>
       </c>
       <c r="D94">
-        <v>-0.367424078431034</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4064996560762845</v>
+      </c>
+      <c r="E94">
+        <v>0.009262879323248634</v>
+      </c>
+      <c r="F94">
+        <v>-0.09590327655195284</v>
+      </c>
+      <c r="G94">
+        <v>0.3998682883629011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1186657505700305</v>
+        <v>0.08765663164867714</v>
       </c>
       <c r="C95">
-        <v>-0.06232308835031249</v>
+        <v>0.05981655226924883</v>
       </c>
       <c r="D95">
-        <v>0.2166080651129599</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2068939197875428</v>
+      </c>
+      <c r="E95">
+        <v>0.08605459728184972</v>
+      </c>
+      <c r="F95">
+        <v>0.7496894103106467</v>
+      </c>
+      <c r="G95">
+        <v>0.5224523695280756</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1942239724050073</v>
+        <v>0.1873742673800679</v>
       </c>
       <c r="C98">
-        <v>-0.01707534463477942</v>
+        <v>0.04438934943022846</v>
       </c>
       <c r="D98">
-        <v>0.1504283616471834</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2012925657966237</v>
+      </c>
+      <c r="E98">
+        <v>0.1288201303944306</v>
+      </c>
+      <c r="F98">
+        <v>-0.08527069488165413</v>
+      </c>
+      <c r="G98">
+        <v>-0.06960292160408374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007840278084653984</v>
+        <v>0.006068616453736742</v>
       </c>
       <c r="C101">
-        <v>-0.03343842930041797</v>
+        <v>0.02853882813753813</v>
       </c>
       <c r="D101">
-        <v>-0.01593534680574448</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01522981094086831</v>
+      </c>
+      <c r="E101">
+        <v>-0.04946505691929873</v>
+      </c>
+      <c r="F101">
+        <v>0.06177014926766585</v>
+      </c>
+      <c r="G101">
+        <v>-0.09202704602851243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1247977106684792</v>
+        <v>0.1270822478061281</v>
       </c>
       <c r="C102">
-        <v>-0.06744314172756795</v>
+        <v>0.09944226287975357</v>
       </c>
       <c r="D102">
-        <v>-0.0500025434737119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0590219999419422</v>
+      </c>
+      <c r="E102">
+        <v>0.01301649475525122</v>
+      </c>
+      <c r="F102">
+        <v>0.02303518794304776</v>
+      </c>
+      <c r="G102">
+        <v>0.01177597300936363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
